--- a/Others/Project Planning.xlsx
+++ b/Others/Project Planning.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Project Title :</t>
   </si>
@@ -31,6 +31,9 @@
     <t>Duration :</t>
   </si>
   <si>
+    <t>Present Date :</t>
+  </si>
+  <si>
     <t>WBS No</t>
   </si>
   <si>
@@ -46,22 +49,40 @@
     <t>EndDate</t>
   </si>
   <si>
+    <t>Presentation</t>
+  </si>
+  <si>
     <t>Developement</t>
   </si>
   <si>
     <t>Frontend</t>
   </si>
   <si>
-    <t>Backend?</t>
-  </si>
-  <si>
-    <t>SQL Storage</t>
-  </si>
-  <si>
-    <t>Testing</t>
-  </si>
-  <si>
-    <t>DEBUG</t>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Records</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Components</t>
+  </si>
+  <si>
+    <t>Backend</t>
+  </si>
+  <si>
+    <t>Database</t>
+  </si>
+  <si>
+    <t>Connect Database</t>
+  </si>
+  <si>
+    <t>Create Record</t>
+  </si>
+  <si>
+    <t>Get Records</t>
+  </si>
+  <si>
+    <t>Testing &amp; Debug</t>
   </si>
   <si>
     <t>Information Prepare</t>
@@ -79,7 +100,7 @@
     <numFmt numFmtId="178" formatCode="[$-409]dd\ mmm\ yy;@"/>
     <numFmt numFmtId="179" formatCode="[$-409]d/mmm;@"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -129,13 +150,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -280,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="42">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,18 +345,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="1" tint="0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -361,6 +363,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -505,24 +513,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -546,90 +542,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="15">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.5"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.5"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.5"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.5"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -647,174 +565,29 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.5"/>
+        <color theme="0" tint="-0.25"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color theme="0" tint="-0.25"/>
+      </right>
       <top style="thin">
-        <color theme="0" tint="-0.5"/>
+        <color theme="0" tint="-0.25"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
+        <color theme="0" tint="-0.25"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.5"/>
+        <color theme="0" tint="-0.25"/>
       </left>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.5"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.5"/>
+        <color theme="0" tint="-0.25"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.5"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.5"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.5"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.5"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.5"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.5"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
+        <color theme="0" tint="-0.25"/>
       </bottom>
       <diagonal/>
     </border>
@@ -822,23 +595,23 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="0" tint="-0.25"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
+        <color theme="0" tint="-0.25"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right style="thin">
-        <color theme="0" tint="-0.5"/>
+        <color theme="0" tint="-0.25"/>
       </right>
       <top style="thin">
-        <color theme="0" tint="-0.499984740745262"/>
+        <color theme="0" tint="-0.25"/>
       </top>
       <bottom style="thin">
-        <color theme="0" tint="-0.5"/>
+        <color theme="0" tint="-0.25"/>
       </bottom>
       <diagonal/>
     </border>
@@ -846,7 +619,7 @@
       <left/>
       <right/>
       <top style="thin">
-        <color theme="0" tint="-0.5"/>
+        <color theme="0" tint="-0.25"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -952,67 +725,70 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="16" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="33" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1027,77 +803,74 @@
     <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1106,193 +879,109 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="179" fontId="2" fillId="4" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1617,10 +1306,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:S25"/>
+  <dimension ref="A1:W27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="N17" sqref="N17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1635,7 +1324,7 @@
     <col min="20" max="16384" width="8.88888888888889" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="21" customHeight="1" spans="1:19">
+    <row r="1" ht="21" customHeight="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1643,561 +1332,745 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="5"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="6"/>
-      <c r="N1" s="6"/>
-      <c r="O1" s="6"/>
-      <c r="P1" s="6"/>
-      <c r="Q1" s="6"/>
-      <c r="R1" s="6"/>
-      <c r="S1" s="6"/>
-    </row>
-    <row r="2" ht="20.4" customHeight="1" spans="1:17">
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="4"/>
+      <c r="R1" s="4"/>
+      <c r="S1" s="4"/>
+      <c r="T1" s="4"/>
+      <c r="U1" s="4"/>
+      <c r="V1" s="4"/>
+      <c r="W1" s="4"/>
+    </row>
+    <row r="2" ht="20.4" customHeight="1" spans="1:23">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="8">
+      <c r="B2" s="3"/>
+      <c r="C2" s="5">
         <f>DATE(2023,11,2)</f>
         <v>45232</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11" t="s">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="12"/>
-      <c r="I2" s="48">
+      <c r="H2" s="3"/>
+      <c r="I2" s="5">
         <f>DATE(2023,11,7)</f>
         <v>45237</v>
       </c>
-      <c r="J2" s="48"/>
-      <c r="K2" s="9"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="11" t="s">
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="27"/>
+      <c r="M2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="50">
+      <c r="N2" s="3"/>
+      <c r="O2" s="28">
         <f>(I2-C2)</f>
         <v>5</v>
       </c>
-      <c r="P2" s="51"/>
-      <c r="Q2" s="51"/>
-    </row>
-    <row r="4" spans="9:17">
-      <c r="I4" s="52"/>
-      <c r="O4" s="53"/>
-      <c r="P4" s="54"/>
-      <c r="Q4" s="74"/>
-    </row>
-    <row r="5" ht="19.2" customHeight="1" spans="1:19">
-      <c r="A5" s="13" t="s">
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="T2" s="3"/>
+      <c r="U2" s="5">
+        <f>DATE(2023,11,9)</f>
+        <v>45239</v>
+      </c>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3" spans="2:23">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+    </row>
+    <row r="4" spans="2:23">
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+    </row>
+    <row r="5" ht="19.2" customHeight="1" spans="1:23">
+      <c r="A5" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="15"/>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="16">
+      <c r="B5" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10">
         <f>DATE(2023,11,2)</f>
         <v>45232</v>
       </c>
-      <c r="I5" s="55"/>
-      <c r="J5" s="56">
+      <c r="I5" s="10"/>
+      <c r="J5" s="10">
         <f>H5+1</f>
         <v>45233</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="56">
+      <c r="K5" s="10"/>
+      <c r="L5" s="10">
         <f>J5+1</f>
         <v>45234</v>
       </c>
-      <c r="M5" s="55"/>
-      <c r="N5" s="56">
+      <c r="M5" s="10"/>
+      <c r="N5" s="10">
         <f>L5+1</f>
         <v>45235</v>
       </c>
-      <c r="O5" s="55"/>
-      <c r="P5" s="56">
+      <c r="O5" s="10"/>
+      <c r="P5" s="10">
         <f>N5+1</f>
         <v>45236</v>
       </c>
-      <c r="Q5" s="55"/>
-      <c r="R5" s="56">
+      <c r="Q5" s="10"/>
+      <c r="R5" s="10">
         <f>P5+1</f>
         <v>45237</v>
       </c>
-      <c r="S5" s="75"/>
-    </row>
-    <row r="6" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A6" s="17">
+      <c r="S5" s="10"/>
+      <c r="T5" s="10">
+        <f>R5+1</f>
+        <v>45238</v>
+      </c>
+      <c r="U5" s="10"/>
+      <c r="V5" s="10">
+        <f>T5+1</f>
+        <v>45239</v>
+      </c>
+      <c r="W5" s="10"/>
+    </row>
+    <row r="6" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="21" t="s">
+      <c r="B6" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="58"/>
-      <c r="K6" s="58"/>
-      <c r="L6" s="58"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="58"/>
-      <c r="O6" s="58"/>
-      <c r="P6" s="58"/>
-      <c r="Q6" s="58"/>
-      <c r="R6" s="58"/>
-      <c r="S6" s="21" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A7" s="17"/>
-      <c r="B7" s="22"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="58"/>
-      <c r="O7" s="58"/>
-      <c r="P7" s="58"/>
-      <c r="Q7" s="58"/>
-      <c r="R7" s="58"/>
-      <c r="S7" s="24"/>
-    </row>
-    <row r="8" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A8" s="17"/>
-      <c r="B8" s="22"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="59">
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="29"/>
+      <c r="L6" s="29"/>
+      <c r="M6" s="29"/>
+      <c r="N6" s="29"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="T6" s="46"/>
+      <c r="U6" s="46"/>
+      <c r="V6" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="W6" s="45"/>
+    </row>
+    <row r="7" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A7" s="11"/>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="29"/>
+      <c r="M7" s="29"/>
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="45"/>
+      <c r="T7" s="46"/>
+      <c r="U7" s="46"/>
+      <c r="V7" s="45"/>
+      <c r="W7" s="45"/>
+    </row>
+    <row r="8" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A8" s="11"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="30">
         <f>J5-H5+1</f>
         <v>2</v>
       </c>
-      <c r="J8" s="60"/>
-      <c r="K8" s="61"/>
-      <c r="L8" s="62"/>
-      <c r="M8" s="62"/>
-      <c r="N8" s="62"/>
-      <c r="O8" s="62"/>
-      <c r="P8" s="62"/>
-      <c r="Q8" s="62"/>
-      <c r="R8" s="62"/>
-      <c r="S8" s="24"/>
-    </row>
-    <row r="9" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A9" s="17">
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="45"/>
+      <c r="T8" s="46"/>
+      <c r="U8" s="46"/>
+      <c r="V8" s="45"/>
+      <c r="W8" s="45"/>
+    </row>
+    <row r="9" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A9" s="11">
         <v>2</v>
       </c>
-      <c r="B9" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="19"/>
-      <c r="D9" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="63"/>
-      <c r="J9" s="64">
+      <c r="B9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="15"/>
+      <c r="D9" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="31">
         <f>N5-J5+1</f>
         <v>3</v>
       </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="61"/>
-      <c r="N9" s="61"/>
-      <c r="O9" s="62"/>
-      <c r="P9" s="62"/>
-      <c r="Q9" s="62"/>
-      <c r="R9" s="62"/>
-      <c r="S9" s="24"/>
-    </row>
-    <row r="10" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A10" s="17"/>
-      <c r="B10" s="25"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="65"/>
-      <c r="J10" s="66"/>
-      <c r="K10" s="67"/>
-      <c r="L10" s="67"/>
-      <c r="M10" s="64">
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="45"/>
+      <c r="T9" s="46"/>
+      <c r="U9" s="46"/>
+      <c r="V9" s="45"/>
+      <c r="W9" s="45"/>
+    </row>
+    <row r="10" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A10" s="11"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17">
+        <v>404</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="31">
+        <f>J5-J5+1</f>
+        <v>1</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="34"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="45"/>
+      <c r="T10" s="46"/>
+      <c r="U10" s="46"/>
+      <c r="V10" s="45"/>
+      <c r="W10" s="45"/>
+    </row>
+    <row r="11" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A11" s="11"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="27"/>
+      <c r="M11" s="34"/>
+      <c r="N11" s="34"/>
+      <c r="O11" s="31">
+        <f>P5-N5+1</f>
+        <v>2</v>
+      </c>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="27"/>
+      <c r="S11" s="45"/>
+      <c r="T11" s="46"/>
+      <c r="U11" s="46"/>
+      <c r="V11" s="45"/>
+      <c r="W11" s="45"/>
+    </row>
+    <row r="12" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A12" s="11"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="35">
         <f>P5-L5+1</f>
         <v>3</v>
       </c>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="62"/>
-      <c r="R10" s="62"/>
-      <c r="S10" s="24"/>
-    </row>
-    <row r="11" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A11" s="17"/>
-      <c r="B11" s="25"/>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="63"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="64">
+      <c r="M12" s="36"/>
+      <c r="N12" s="36"/>
+      <c r="O12" s="36"/>
+      <c r="P12" s="37"/>
+      <c r="Q12" s="27"/>
+      <c r="R12" s="27"/>
+      <c r="S12" s="45"/>
+      <c r="T12" s="46"/>
+      <c r="U12" s="46"/>
+      <c r="V12" s="45"/>
+      <c r="W12" s="45"/>
+    </row>
+    <row r="13" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A13" s="11"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
+      <c r="N13" s="39"/>
+      <c r="O13" s="39"/>
+      <c r="P13" s="39"/>
+      <c r="Q13" s="39"/>
+      <c r="R13" s="38"/>
+      <c r="S13" s="45"/>
+      <c r="T13" s="46"/>
+      <c r="U13" s="46"/>
+      <c r="V13" s="45"/>
+      <c r="W13" s="45"/>
+    </row>
+    <row r="14" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A14" s="11"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="40">
+        <f>P5-N5+1</f>
+        <v>2</v>
+      </c>
+      <c r="P14" s="40"/>
+      <c r="Q14" s="40"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="45"/>
+      <c r="T14" s="46"/>
+      <c r="U14" s="46"/>
+      <c r="V14" s="45"/>
+      <c r="W14" s="45"/>
+    </row>
+    <row r="15" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A15" s="11"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="19"/>
+      <c r="E15" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="40">
+        <f>P5-N5+1</f>
+        <v>2</v>
+      </c>
+      <c r="P15" s="40"/>
+      <c r="Q15" s="40"/>
+      <c r="R15" s="27"/>
+      <c r="S15" s="45"/>
+      <c r="T15" s="46"/>
+      <c r="U15" s="46"/>
+      <c r="V15" s="45"/>
+      <c r="W15" s="45"/>
+    </row>
+    <row r="16" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="27"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="40">
+        <f>P5-N5+1</f>
+        <v>2</v>
+      </c>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="45"/>
+      <c r="T16" s="46"/>
+      <c r="U16" s="46"/>
+      <c r="V16" s="45"/>
+      <c r="W16" s="45"/>
+    </row>
+    <row r="17" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A17" s="11"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="27"/>
+      <c r="J17" s="27"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="27"/>
+      <c r="M17" s="27"/>
+      <c r="N17" s="27"/>
+      <c r="O17" s="40">
+        <f>P5-N5+1</f>
+        <v>2</v>
+      </c>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="27"/>
+      <c r="S17" s="45"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="45"/>
+      <c r="W17" s="45"/>
+    </row>
+    <row r="18" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A18" s="11"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="27"/>
+      <c r="J18" s="27"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="27"/>
+      <c r="N18" s="27"/>
+      <c r="O18" s="27"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="27"/>
+      <c r="S18" s="45"/>
+      <c r="T18" s="46"/>
+      <c r="U18" s="46"/>
+      <c r="V18" s="45"/>
+      <c r="W18" s="45"/>
+    </row>
+    <row r="19" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A19" s="11"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+      <c r="K19" s="42"/>
+      <c r="L19" s="42"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="42"/>
+      <c r="O19" s="42"/>
+      <c r="P19" s="42"/>
+      <c r="Q19" s="42"/>
+      <c r="R19" s="42"/>
+      <c r="S19" s="45"/>
+      <c r="T19" s="46"/>
+      <c r="U19" s="46"/>
+      <c r="V19" s="45"/>
+      <c r="W19" s="45"/>
+    </row>
+    <row r="20" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A20" s="11"/>
+      <c r="B20" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="21"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="27"/>
+      <c r="J20" s="27"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="27"/>
+      <c r="M20" s="31">
         <f>P5-L5+1</f>
         <v>3</v>
       </c>
-      <c r="N11" s="64"/>
-      <c r="O11" s="64"/>
-      <c r="P11" s="64"/>
-      <c r="Q11" s="62"/>
-      <c r="R11" s="62"/>
-      <c r="S11" s="24"/>
-    </row>
-    <row r="12" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A12" s="17"/>
-      <c r="B12" s="25"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="63"/>
-      <c r="J12" s="62"/>
-      <c r="K12" s="62"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="69"/>
-      <c r="Q12" s="62"/>
-      <c r="R12" s="62"/>
-      <c r="S12" s="24"/>
-    </row>
-    <row r="13" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A13" s="17"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="31"/>
-      <c r="D13" s="27"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="63"/>
-      <c r="J13" s="62"/>
-      <c r="K13" s="62"/>
-      <c r="L13" s="62"/>
-      <c r="R13" s="62"/>
-      <c r="S13" s="24"/>
-    </row>
-    <row r="14" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A14" s="17"/>
-      <c r="B14" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="63"/>
-      <c r="J14" s="62"/>
-      <c r="K14" s="62"/>
-      <c r="L14" s="62"/>
-      <c r="M14" s="70">
-        <f>P5-L5+1</f>
-        <v>3</v>
-      </c>
-      <c r="N14" s="64"/>
-      <c r="O14" s="64"/>
-      <c r="P14" s="64"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="62"/>
-      <c r="S14" s="24"/>
-    </row>
-    <row r="15" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A15" s="17"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="36"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="36"/>
-      <c r="F15" s="36"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="63"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="62"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="71"/>
-      <c r="N15" s="64"/>
-      <c r="O15" s="64"/>
-      <c r="P15" s="64"/>
-      <c r="Q15" s="76"/>
-      <c r="R15" s="62"/>
-      <c r="S15" s="24"/>
-    </row>
-    <row r="16" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A16" s="17"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="39"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="63"/>
-      <c r="J16" s="62"/>
-      <c r="K16" s="62"/>
-      <c r="L16" s="62"/>
-      <c r="M16" s="62"/>
-      <c r="N16" s="62"/>
-      <c r="O16" s="62"/>
-      <c r="P16" s="62"/>
-      <c r="Q16" s="62"/>
-      <c r="R16" s="62"/>
-      <c r="S16" s="24"/>
-    </row>
-    <row r="17" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A17" s="17"/>
-      <c r="B17" s="42"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="40"/>
-      <c r="E17" s="40"/>
-      <c r="F17" s="40"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="63"/>
-      <c r="J17" s="62"/>
-      <c r="K17" s="62"/>
-      <c r="L17" s="62"/>
-      <c r="M17" s="62"/>
-      <c r="N17" s="62"/>
-      <c r="O17" s="62"/>
-      <c r="P17" s="62"/>
-      <c r="Q17" s="62"/>
-      <c r="R17" s="62"/>
-      <c r="S17" s="24"/>
-    </row>
-    <row r="18" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A18" s="17"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="39"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="63"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="24"/>
-    </row>
-    <row r="19" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A19" s="17"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="40"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="63"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="24"/>
-    </row>
-    <row r="20" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A20" s="17"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="39"/>
-      <c r="D20" s="40"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="41"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="63"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="24"/>
-    </row>
-    <row r="21" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A21" s="17"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="40"/>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="41"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="63"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="24"/>
-    </row>
-    <row r="22" ht="18.6" customHeight="1" spans="1:19">
-      <c r="A22" s="17"/>
-      <c r="B22" s="43" t="s">
-        <v>16</v>
-      </c>
-      <c r="C22" s="44"/>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="46"/>
-      <c r="I22" s="72">
+      <c r="N20" s="31"/>
+      <c r="O20" s="31"/>
+      <c r="P20" s="31"/>
+      <c r="Q20" s="31"/>
+      <c r="R20" s="31"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="46"/>
+      <c r="U20" s="46"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+    </row>
+    <row r="21" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A21" s="11"/>
+      <c r="B21" s="21"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="14"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="31"/>
+      <c r="N21" s="31"/>
+      <c r="O21" s="31"/>
+      <c r="P21" s="31"/>
+      <c r="Q21" s="31"/>
+      <c r="R21" s="31"/>
+      <c r="S21" s="45"/>
+      <c r="T21" s="46"/>
+      <c r="U21" s="46"/>
+      <c r="V21" s="45"/>
+      <c r="W21" s="45"/>
+    </row>
+    <row r="22" ht="18.6" customHeight="1" spans="1:23">
+      <c r="A22" s="11"/>
+      <c r="B22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="43">
         <f>R5-H5</f>
         <v>5</v>
       </c>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
-      <c r="L22" s="72"/>
-      <c r="M22" s="72"/>
-      <c r="N22" s="72"/>
-      <c r="O22" s="72"/>
-      <c r="P22" s="72"/>
-      <c r="Q22" s="72"/>
-      <c r="R22" s="72"/>
-      <c r="S22" s="46"/>
+      <c r="J22" s="43"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43"/>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="43"/>
+      <c r="R22" s="43"/>
+      <c r="S22" s="43"/>
+      <c r="T22" s="43"/>
+      <c r="U22" s="43"/>
+      <c r="V22" s="45"/>
+      <c r="W22" s="45"/>
     </row>
     <row r="23" spans="3:17">
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="73"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="47"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
     </row>
     <row r="24" spans="3:17">
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="47"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="23"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="23"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="23"/>
     </row>
     <row r="25" spans="3:17">
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="47"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="23"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="23"/>
+    </row>
+    <row r="26" spans="3:6">
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="24"/>
+    </row>
+    <row r="27" spans="3:15">
+      <c r="C27" s="26"/>
+      <c r="D27" s="26"/>
+      <c r="E27" s="26"/>
+      <c r="F27" s="24"/>
+      <c r="O27" s="44"/>
     </row>
   </sheetData>
-  <mergeCells count="35">
+  <mergeCells count="54">
     <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:S1"/>
+    <mergeCell ref="C1:W1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="I2:K2"/>
     <mergeCell ref="M2:N2"/>
     <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="S2:T2"/>
+    <mergeCell ref="U2:W2"/>
     <mergeCell ref="B5:G5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="J5:K5"/>
@@ -2205,26 +2078,43 @@
     <mergeCell ref="N5:O5"/>
     <mergeCell ref="P5:Q5"/>
     <mergeCell ref="R5:S5"/>
+    <mergeCell ref="T5:U5"/>
+    <mergeCell ref="V5:W5"/>
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="D8:G8"/>
     <mergeCell ref="I8:K8"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="J9:N9"/>
-    <mergeCell ref="D10:G10"/>
-    <mergeCell ref="M10:P10"/>
-    <mergeCell ref="D11:G11"/>
-    <mergeCell ref="M11:P11"/>
-    <mergeCell ref="D12:G12"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="J9:Q9"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="J10:K10"/>
+    <mergeCell ref="E11:G11"/>
+    <mergeCell ref="O11:Q11"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="L12:P12"/>
     <mergeCell ref="D13:G13"/>
+    <mergeCell ref="E14:G14"/>
+    <mergeCell ref="O14:Q14"/>
+    <mergeCell ref="E15:G15"/>
+    <mergeCell ref="O15:Q15"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="O16:Q16"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="O17:Q17"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="I19:R19"/>
     <mergeCell ref="B22:G22"/>
-    <mergeCell ref="I22:R22"/>
+    <mergeCell ref="I22:U22"/>
+    <mergeCell ref="D9:D12"/>
+    <mergeCell ref="D14:D18"/>
     <mergeCell ref="H6:H22"/>
-    <mergeCell ref="S6:S22"/>
+    <mergeCell ref="S6:S21"/>
     <mergeCell ref="B6:C8"/>
-    <mergeCell ref="B9:C13"/>
-    <mergeCell ref="B14:G15"/>
-    <mergeCell ref="M14:P15"/>
+    <mergeCell ref="B20:G21"/>
+    <mergeCell ref="M20:R21"/>
+    <mergeCell ref="B9:C19"/>
+    <mergeCell ref="V6:W22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="1" orientation="portrait"/>
